--- a/src/main/resources/datafiles/TestSuite.xlsx
+++ b/src/main/resources/datafiles/TestSuite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="65">
   <si>
     <t>Test Case</t>
   </si>
@@ -687,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
